--- a/output_batch_size_30.xlsx
+++ b/output_batch_size_30.xlsx
@@ -460,232 +460,232 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.48149998982747</v>
+        <v>17.75108443366157</v>
       </c>
       <c r="C2" t="n">
-        <v>20.02231280008952</v>
+        <v>17.32108328077528</v>
       </c>
       <c r="D2" t="n">
-        <v>27.15908156500922</v>
+        <v>17.19811227586534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(860, 860)</t>
+          <t>(817, 817)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(1125, 307)</t>
+          <t>(1131, 281)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(1294, 230)</t>
+          <t>(1233, 215)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(1243, 352)</t>
+          <t>(1271, 370)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(317, 311)</t>
+          <t>(221, 210)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(321, 192)</t>
+          <t>(264, 145)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(333, 164)</t>
+          <t>(256, 139)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(363, 233)</t>
+          <t>(283, 172)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(1346.8571975446255, 138, 179, 0.5646687697160884)</t>
+          <t>(102.53234317435835, 56, 165, 0.746606334841629)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(1447.4414289725464, 129, 192, 0.5981308411214953)</t>
+          <t>(27.217484195932308, 88, 176, 0.6666666666666666)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(1416.9347452511204, 140, 193, 0.5795795795795796)</t>
+          <t>(37.5941500456315, 70, 186, 0.7265625)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(1667.7661444510434, 145, 218, 0.6005509641873278)</t>
+          <t>(82.22950172269303, 91, 192, 0.6784452296819788)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(1285.0966336961726, 139, 172, 0.5530546623794212)</t>
+          <t>(40.905336072156615, 60, 150, 0.7142857142857143)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(834.8121743993535, 81, 111, 0.578125)</t>
+          <t>(0.0, 33, 112, 0.7724137931034483)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(707.6939655685359, 71, 93, 0.5670731707317073)</t>
+          <t>(0.0, 34, 105, 0.7553956834532374)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(933.9279918731601, 110, 123, 0.5278969957081545)</t>
+          <t>(18.862349512529835, 46, 126, 0.7325581395348837)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(224, 226)</t>
+          <t>(180, 186)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(254, 172)</t>
+          <t>(209, 144)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(273, 146)</t>
+          <t>(203, 137)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(263, 163)</t>
+          <t>(207, 148)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(4258.231712862658, 56, 168, 0.75)</t>
+          <t>(7787.552231732369, 38, 142, 0.7888888888888889)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(4860.937915012118, 55, 199, 0.7834645669291339)</t>
+          <t>(10599.870911383054, 35, 174, 0.8325358851674641)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(4912.780837665447, 72, 201, 0.7362637362637363)</t>
+          <t>(10924.666873829075, 28, 175, 0.8620689655172413)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(4679.378642018681, 69, 194, 0.7376425855513308)</t>
+          <t>(10937.120479836873, 32, 175, 0.8454106280193237)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(3997.010204132391, 56, 170, 0.7522123893805309)</t>
+          <t>(8261.761839277066, 46, 140, 0.7526881720430108)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(3061.3971275817244, 43, 129, 0.75)</t>
+          <t>(6209.331449298069, 22, 122, 0.8472222222222222)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(2473.7752090253603, 33, 113, 0.773972602739726)</t>
+          <t>(5392.01188251324, 26, 111, 0.8102189781021898)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(2864.6832944612092, 44, 119, 0.7300613496932515)</t>
+          <t>(6487.089538027507, 26, 122, 0.8243243243243243)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(224, 226)</t>
+          <t>(180, 186)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(654, 273)</t>
+          <t>(668, 252)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(726, 207)</t>
+          <t>(708, 198)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(720, 290)</t>
+          <t>(714, 301)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(3397.6808514568056, 235, 348, 0.5969125214408233)</t>
+          <t>(2193.6882154481646, 202, 374, 0.6493055555555556)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(3426.3560713004354, 300, 354, 0.5412844036697247)</t>
+          <t>(2379.273445176345, 224, 444, 0.6646706586826348)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(3539.9821564918575, 316, 410, 0.5647382920110193)</t>
+          <t>(2492.964235458776, 233, 475, 0.6709039548022598)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(3637.8228451053837, 300, 420, 0.5833333333333334)</t>
+          <t>(2418.7755156130215, 235, 479, 0.6708683473389355)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(3462.7379885339237, 234, 324, 0.5806451612903226)</t>
+          <t>(2287.410023130107, 185, 365, 0.6636363636363637)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(2673.0095242741377, 116, 157, 0.575091575091575)</t>
+          <t>(1468.2913701488976, 95, 157, 0.623015873015873)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(2256.9441905884987, 86, 121, 0.5845410628019324)</t>
+          <t>(1389.4633908251956, 68, 130, 0.6565656565656566)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(3103.9790669095964, 111, 179, 0.6172413793103448)</t>
+          <t>(1540.233386441597, 104, 197, 0.654485049833887)</t>
         </is>
       </c>
     </row>
